--- a/medicine/Pharmacie/Acacia_à_cachou/Acacia_à_cachou.xlsx
+++ b/medicine/Pharmacie/Acacia_à_cachou/Acacia_à_cachou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acacia_%C3%A0_cachou</t>
+          <t>Acacia_à_cachou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senegalia catechu
 L'Acacia à cachou (Senegalia catechu), encore appelé cachoutier, est une espèce d'arbres appartenant à la famille des Fabacées. Elle est originaire d'Asie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acacia_%C3%A0_cachou</t>
+          <t>Acacia_à_cachou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acacia_%C3%A0_cachou</t>
+          <t>Acacia_à_cachou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Composant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est riche en tannins et en flavonoïdes. La catéchine et le catéchol (auxquels sont apparentées les catécholamines) ont été découverts dans des extraits de cette espèce.
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acacia_%C3%A0_cachou</t>
+          <t>Acacia_à_cachou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acacia à cachou est surtout cultivé pour son bois rouge foncé.
 On produit à partir du bois une teinture d'un brun rougeâtre, utilisée pour le tannage des peaux et également dans le passé pour le cachoutage des voiles (imperméabilisation).
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Acacia_%C3%A0_cachou</t>
+          <t>Acacia_à_cachou</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +621,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des études récentes ont montré qu'il possède un large éventail d'activités pharmacologiques, notamment hypoglycémiantes, hépatoprotectrices, protectrices du côlon, antimicrobiennes, activité antipyrétique, antidiarrhéique et anti-inflammatoire[3].
-Il a été utilisé en médecine traditionnelle chinoise (MTC) afin de traiter les saignements traumatiques, l'eczéma et la toux[3]. En Inde, on mâche ses feuilles pour se couper l'appétit.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des études récentes ont montré qu'il possède un large éventail d'activités pharmacologiques, notamment hypoglycémiantes, hépatoprotectrices, protectrices du côlon, antimicrobiennes, activité antipyrétique, antidiarrhéique et anti-inflammatoire.
+Il a été utilisé en médecine traditionnelle chinoise (MTC) afin de traiter les saignements traumatiques, l'eczéma et la toux. En Inde, on mâche ses feuilles pour se couper l'appétit.
 </t>
         </is>
       </c>
